--- a/data/trans_bre/P25_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-38,75%</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-30,42%</t>
+          <t>-15,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,71</t>
+          <t>-2,72; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 0,29</t>
+          <t>-4,64; 3,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,71</t>
+          <t>-4,47; 4,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,02; 18,7</t>
+          <t>-5,11; 6,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 8,2</t>
+          <t>-61,36; 442,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 35,02</t>
+          <t>-72,87; 167,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-70,09; 216,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-59,98; 166,91</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,8%</t>
+          <t>-47,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>-62,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-45,84%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-48,66%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,96</t>
+          <t>-9,06; 1,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,42</t>
+          <t>-8,67; 0,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,53</t>
+          <t>-7,54; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 65,09</t>
+          <t>-11,49; 1,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 85,88</t>
+          <t>-83,97; 52,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,24; 131,12</t>
+          <t>-91,56; 37,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-85,94; 73,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,98; 51,16</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>-15,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>-22,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-10,93%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 9,68</t>
+          <t>-15,96; 14,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 10,49</t>
+          <t>-13,12; 12,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 15,82</t>
+          <t>-12,8; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-80,21; 398,27</t>
+          <t>-16,56; 17,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-80,07; 398,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 481,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,77%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-19,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>-38,44%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,78</t>
+          <t>-4,13; 2,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,46</t>
+          <t>-4,93; 0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,48</t>
+          <t>-4,32; 1,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 12,34</t>
+          <t>-5,99; 2,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 7,24</t>
+          <t>-60,64; 61,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 48,14</t>
+          <t>-70,26; 22,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-62,04; 54,01</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; 41,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>44,08%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-15,71%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-8,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.9847432792781486</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.7076778413146002</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4788076484521536</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.725460941882667</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.374117208537003</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1702805555379441</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1072407357774187</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1247464892349093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 4,94</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 3,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 4,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 6,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-61,36; 442,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-72,87; 167,46</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-70,09; 216,28</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-59,98; 166,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.588288280983812</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.540543521690606</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.565625403191675</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.190839768427564</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.643105036793019</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.7307583318215107</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7176322554756019</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5640609449157393</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.314606457089394</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.108241729923066</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.485724551974386</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.403655293471659</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4.201924429593742</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.656577552746043</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.195429788341075</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.09947115361031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,58</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-47,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-62,29%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,84%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-48,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 1,49</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 0,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,54; 1,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,49; 1,71</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-83,97; 52,46</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-91,56; 37,38</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-85,94; 73,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,98; 51,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.473456169449589</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.153500850420938</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.205702870927972</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-3.767564046522172</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4119430964552482</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.5999423796391068</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.4431066237777962</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.474700264825463</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-15,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-22,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-10,93%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-20,11%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.491924415127454</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.783816454596551</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.650373582084189</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.919619066753395</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8193983915417627</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9079731690876331</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8453666992341772</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.824183264599612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,96; 14,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,12; 12,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,8; 15,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,56; 17,49</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.958988563410648</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4766630029318862</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.413882494758838</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.702262076044801</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.6786316030779573</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4788633682493705</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7431001991191369</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5025322806403409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-38,44%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-25,3%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-25,35%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.622873766920267</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.616698522603946</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1376523577922145</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.626499534795352</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2855656248559586</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1852564378071262</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.01667952094235536</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1497013414758234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 2,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 1,63</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 2,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; 61,47</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-70,26; 22,88</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-62,04; 54,01</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-58,66; 41,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.4392816404595</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.84070803113961</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.32498220678566</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.90833962989957</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.07353928841685</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.1138794960722</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.54959043210308</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.44442412406648</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.8478518983941579</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.82085948209176</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.143913591114555</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.354668842738765</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1798329885668852</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3570443213446943</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2247277465476248</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1868619718346226</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.823816848664102</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.65750766053657</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.89701791744768</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.254973602216212</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6057326228382091</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6881925464049794</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5966470157629344</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5604347991413114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.903129976327551</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9736730128381885</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.968936896597055</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.969796761713488</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6129440635696563</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3053428605789531</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6765691801241331</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5376722595579959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
